--- a/analysis/metadata/P04_6/P04_6_minimal_metadata.xlsx
+++ b/analysis/metadata/P04_6/P04_6_minimal_metadata.xlsx
@@ -468,7 +468,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -536,7 +536,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -604,7 +604,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -929,7 +929,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -997,7 +997,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1065,7 +1065,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1337,7 +1337,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1405,7 +1405,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1473,7 +1473,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1677,7 +1677,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1813,7 +1813,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1949,7 +1949,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2017,7 +2017,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2085,7 +2085,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2153,7 +2153,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2221,7 +2221,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2289,7 +2289,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2357,7 +2357,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2493,7 +2493,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2561,7 +2561,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2629,7 +2629,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2697,7 +2697,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2765,7 +2765,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2833,7 +2833,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2901,7 +2901,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2969,7 +2969,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3037,7 +3037,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3105,7 +3105,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3173,7 +3173,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3309,7 +3309,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3377,7 +3377,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3445,7 +3445,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3513,7 +3513,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3581,7 +3581,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3649,7 +3649,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3717,7 +3717,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3785,7 +3785,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3848,7 +3848,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3901,7 +3901,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3959,7 +3959,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4027,7 +4027,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4095,7 +4095,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4163,7 +4163,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4231,7 +4231,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4299,7 +4299,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4367,7 +4367,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4435,7 +4435,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4503,7 +4503,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4571,7 +4571,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4639,7 +4639,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4707,7 +4707,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -4775,7 +4775,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -4843,7 +4843,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4911,7 +4911,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -4979,7 +4979,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5047,7 +5047,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5115,7 +5115,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5183,7 +5183,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5251,7 +5251,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5319,7 +5319,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -5387,7 +5387,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -5455,7 +5455,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -5523,7 +5523,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -5591,7 +5591,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -5659,7 +5659,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -5727,7 +5727,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -5795,7 +5795,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -5863,7 +5863,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -5931,7 +5931,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -5999,7 +5999,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6067,7 +6067,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -6130,7 +6130,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -6188,7 +6188,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -6256,7 +6256,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -6392,7 +6392,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -6460,7 +6460,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -6528,7 +6528,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -6596,7 +6596,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -6732,7 +6732,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -6800,7 +6800,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -6868,7 +6868,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -6936,7 +6936,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7004,7 +7004,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -7072,7 +7072,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -7140,7 +7140,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -7208,7 +7208,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -7276,7 +7276,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -7344,7 +7344,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -7412,7 +7412,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -7548,7 +7548,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -7616,7 +7616,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -7679,7 +7679,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -7732,7 +7732,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -7790,7 +7790,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -7858,7 +7858,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -7926,7 +7926,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -7994,7 +7994,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -8062,7 +8062,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -8125,7 +8125,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -8183,7 +8183,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -8251,7 +8251,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -8319,7 +8319,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -8387,7 +8387,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -8455,7 +8455,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -8523,7 +8523,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -8591,7 +8591,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -8659,7 +8659,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -8727,7 +8727,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -8795,7 +8795,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -8868,7 +8868,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -8936,7 +8936,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -9004,7 +9004,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>2021-10-14</t>
+          <t>14/10/2021 00:00</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">

--- a/analysis/metadata/P04_6/P04_6_minimal_metadata.xlsx
+++ b/analysis/metadata/P04_6/P04_6_minimal_metadata.xlsx
@@ -468,7 +468,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -536,7 +536,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -604,7 +604,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -929,7 +929,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -997,7 +997,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1065,7 +1065,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1337,7 +1337,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1405,7 +1405,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1473,7 +1473,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1677,7 +1677,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1813,7 +1813,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1949,7 +1949,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2017,7 +2017,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2085,7 +2085,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2153,7 +2153,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2221,7 +2221,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2289,7 +2289,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2357,7 +2357,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2493,7 +2493,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2561,7 +2561,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2629,7 +2629,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2697,7 +2697,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2765,7 +2765,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2833,7 +2833,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2901,7 +2901,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2969,7 +2969,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3037,7 +3037,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3105,7 +3105,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3173,7 +3173,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3309,7 +3309,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3377,7 +3377,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3445,7 +3445,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3513,7 +3513,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3581,7 +3581,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3649,7 +3649,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3717,7 +3717,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3785,7 +3785,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3848,7 +3848,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3901,7 +3901,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3959,7 +3959,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4027,7 +4027,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4095,7 +4095,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4163,7 +4163,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4231,7 +4231,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4299,7 +4299,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4367,7 +4367,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4435,7 +4435,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4503,7 +4503,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4571,7 +4571,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4639,7 +4639,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4707,7 +4707,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -4775,7 +4775,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -4843,7 +4843,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4911,7 +4911,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -4979,7 +4979,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5047,7 +5047,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5115,7 +5115,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5183,7 +5183,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5251,7 +5251,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5319,7 +5319,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -5387,7 +5387,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -5455,7 +5455,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -5523,7 +5523,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -5591,7 +5591,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -5659,7 +5659,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -5727,7 +5727,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -5795,7 +5795,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -5863,7 +5863,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -5931,7 +5931,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -5999,7 +5999,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6067,7 +6067,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -6130,7 +6130,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -6188,7 +6188,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -6256,7 +6256,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -6392,7 +6392,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -6460,7 +6460,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -6528,7 +6528,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -6596,7 +6596,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -6732,7 +6732,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -6800,7 +6800,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -6868,7 +6868,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -6936,7 +6936,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7004,7 +7004,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -7072,7 +7072,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -7140,7 +7140,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -7208,7 +7208,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -7276,7 +7276,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -7344,7 +7344,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -7412,7 +7412,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -7548,7 +7548,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -7616,7 +7616,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -7679,7 +7679,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -7732,7 +7732,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -7790,7 +7790,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -7858,7 +7858,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -7926,7 +7926,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -7994,7 +7994,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -8062,7 +8062,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -8125,7 +8125,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -8183,7 +8183,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -8251,7 +8251,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -8319,7 +8319,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -8387,7 +8387,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -8455,7 +8455,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -8523,7 +8523,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -8591,7 +8591,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -8659,7 +8659,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -8727,7 +8727,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -8795,7 +8795,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -8868,7 +8868,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -8936,7 +8936,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -9004,7 +9004,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>14/10/2021 00:00</t>
+          <t>2021-10-14</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">

--- a/analysis/metadata/P04_6/P04_6_minimal_metadata.xlsx
+++ b/analysis/metadata/P04_6/P04_6_minimal_metadata.xlsx
@@ -466,6 +466,11 @@
           <t>6900</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Everdrup</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -534,6 +539,11 @@
           <t>6900</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Erritsø</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -602,6 +612,11 @@
           <t>6900</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Vejle</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -670,6 +685,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Bandholm</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -738,6 +758,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Nørre Jernløse</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -806,6 +831,11 @@
           <t>6900</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Nees</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -869,6 +899,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Malt</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -927,6 +962,11 @@
           <t>6900</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Beldringe</t>
+        </is>
+      </c>
       <c r="H9" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -995,6 +1035,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Hjortlund</t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -1063,6 +1108,11 @@
           <t>6900</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Sankt Katharine</t>
+        </is>
+      </c>
       <c r="H11" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -1131,6 +1181,11 @@
           <t>6900</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Tiphede</t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -1199,6 +1254,11 @@
           <t>6900</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Tim</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -1267,6 +1327,11 @@
           <t>6900</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Langelund</t>
+        </is>
+      </c>
       <c r="H14" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -1335,6 +1400,11 @@
           <t>6900</t>
         </is>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Tinglev</t>
+        </is>
+      </c>
       <c r="H15" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -1403,6 +1473,11 @@
           <t>6900</t>
         </is>
       </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Stigs Bjergby-Mørkøv</t>
+        </is>
+      </c>
       <c r="H16" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -1471,6 +1546,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Højby</t>
+        </is>
+      </c>
       <c r="H17" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -1539,6 +1619,11 @@
           <t>6900</t>
         </is>
       </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Ramløse</t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -1607,6 +1692,11 @@
           <t>6900</t>
         </is>
       </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Helsinge</t>
+        </is>
+      </c>
       <c r="H19" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -1675,6 +1765,11 @@
           <t>6900</t>
         </is>
       </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Brahetrolleborg</t>
+        </is>
+      </c>
       <c r="H20" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -1743,6 +1838,11 @@
           <t>6900</t>
         </is>
       </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Jerne</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -1811,6 +1911,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Kliplev</t>
+        </is>
+      </c>
       <c r="H22" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -1879,6 +1984,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Notmark</t>
+        </is>
+      </c>
       <c r="H23" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -1947,6 +2057,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Odder</t>
+        </is>
+      </c>
       <c r="H24" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -2015,6 +2130,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Butterup-Tuse</t>
+        </is>
+      </c>
       <c r="H25" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -2083,6 +2203,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Nørre Asmindrup</t>
+        </is>
+      </c>
       <c r="H26" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -2151,6 +2276,11 @@
           <t>6900</t>
         </is>
       </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Åstrup</t>
+        </is>
+      </c>
       <c r="H27" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -2219,6 +2349,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Taps</t>
+        </is>
+      </c>
       <c r="H28" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -2287,6 +2422,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Odder</t>
+        </is>
+      </c>
       <c r="H29" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -2355,6 +2495,11 @@
           <t>6900</t>
         </is>
       </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Årre</t>
+        </is>
+      </c>
       <c r="H30" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -2423,6 +2568,11 @@
           <t>6100</t>
         </is>
       </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Birket</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -2491,6 +2641,11 @@
           <t>6900</t>
         </is>
       </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Møborg</t>
+        </is>
+      </c>
       <c r="H32" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -2559,6 +2714,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Vigerslev</t>
+        </is>
+      </c>
       <c r="H33" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -2627,6 +2787,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Tranekær</t>
+        </is>
+      </c>
       <c r="H34" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -2695,6 +2860,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Egen</t>
+        </is>
+      </c>
       <c r="H35" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -2763,6 +2933,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Brenderup</t>
+        </is>
+      </c>
       <c r="H36" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -2831,6 +3006,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Kirke Stillinge</t>
+        </is>
+      </c>
       <c r="H37" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -2899,6 +3079,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Andst</t>
+        </is>
+      </c>
       <c r="H38" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -2967,6 +3152,11 @@
           <t>6900</t>
         </is>
       </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Teestrup</t>
+        </is>
+      </c>
       <c r="H39" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -3035,6 +3225,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Esbønderup</t>
+        </is>
+      </c>
       <c r="H40" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -3103,6 +3298,11 @@
           <t>6900</t>
         </is>
       </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Øster Løgum</t>
+        </is>
+      </c>
       <c r="H41" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -3171,6 +3371,11 @@
           <t>6100</t>
         </is>
       </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Vigerslev</t>
+        </is>
+      </c>
       <c r="H42" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -3239,6 +3444,11 @@
           <t>6900</t>
         </is>
       </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Vedslet</t>
+        </is>
+      </c>
       <c r="H43" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -3307,6 +3517,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Odder</t>
+        </is>
+      </c>
       <c r="H44" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -3375,6 +3590,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Ubby</t>
+        </is>
+      </c>
       <c r="H45" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -3443,6 +3663,11 @@
           <t>6900</t>
         </is>
       </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Tullebølle</t>
+        </is>
+      </c>
       <c r="H46" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -3511,6 +3736,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Borre</t>
+        </is>
+      </c>
       <c r="H47" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -3579,6 +3809,11 @@
           <t>6900</t>
         </is>
       </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Tjæreborg</t>
+        </is>
+      </c>
       <c r="H48" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -3647,6 +3882,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Fuglse</t>
+        </is>
+      </c>
       <c r="H49" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -3715,6 +3955,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Tranekær</t>
+        </is>
+      </c>
       <c r="H50" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -3783,6 +4028,11 @@
           <t>6900</t>
         </is>
       </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Helnæs</t>
+        </is>
+      </c>
       <c r="H51" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -3846,6 +4096,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Kastrup</t>
+        </is>
+      </c>
       <c r="H52" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -3899,6 +4154,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Nørre Vium</t>
+        </is>
+      </c>
       <c r="H53" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -3957,6 +4217,11 @@
           <t>6900</t>
         </is>
       </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Øster Hjermitslev</t>
+        </is>
+      </c>
       <c r="H54" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -4025,6 +4290,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Hee</t>
+        </is>
+      </c>
       <c r="H55" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -4093,6 +4363,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Øster Alling</t>
+        </is>
+      </c>
       <c r="H56" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -4161,6 +4436,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Astrup</t>
+        </is>
+      </c>
       <c r="H57" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -4229,6 +4509,11 @@
           <t>6900</t>
         </is>
       </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Farsø</t>
+        </is>
+      </c>
       <c r="H58" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -4297,6 +4582,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Komdrup</t>
+        </is>
+      </c>
       <c r="H59" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -4365,6 +4655,11 @@
           <t>6900</t>
         </is>
       </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Rosmus</t>
+        </is>
+      </c>
       <c r="H60" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -4433,6 +4728,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Ålum</t>
+        </is>
+      </c>
       <c r="H61" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -4501,6 +4801,11 @@
           <t>6900</t>
         </is>
       </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Torslev</t>
+        </is>
+      </c>
       <c r="H62" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -4569,6 +4874,11 @@
           <t>6900</t>
         </is>
       </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Durup</t>
+        </is>
+      </c>
       <c r="H63" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -4637,6 +4947,11 @@
           <t>6900</t>
         </is>
       </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Mørke</t>
+        </is>
+      </c>
       <c r="H64" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -4705,6 +5020,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Hinge</t>
+        </is>
+      </c>
       <c r="H65" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -4773,6 +5093,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Vester Hassing</t>
+        </is>
+      </c>
       <c r="H66" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -4841,6 +5166,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Stadil</t>
+        </is>
+      </c>
       <c r="H67" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -4909,6 +5239,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Lønborg</t>
+        </is>
+      </c>
       <c r="H68" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -4977,6 +5312,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Nørre Galten</t>
+        </is>
+      </c>
       <c r="H69" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -5045,6 +5385,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Enslev</t>
+        </is>
+      </c>
       <c r="H70" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -5113,6 +5458,11 @@
           <t>6900</t>
         </is>
       </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Serup</t>
+        </is>
+      </c>
       <c r="H71" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -5181,6 +5531,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Ravnkilde</t>
+        </is>
+      </c>
       <c r="H72" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -5249,6 +5604,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Nørbæk</t>
+        </is>
+      </c>
       <c r="H73" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -5317,6 +5677,11 @@
           <t>6900</t>
         </is>
       </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Års</t>
+        </is>
+      </c>
       <c r="H74" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -5385,6 +5750,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Vester Velling</t>
+        </is>
+      </c>
       <c r="H75" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -5453,6 +5823,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Ravnstrup</t>
+        </is>
+      </c>
       <c r="H76" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -5521,6 +5896,11 @@
           <t>6900</t>
         </is>
       </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Krogsbæk</t>
+        </is>
+      </c>
       <c r="H77" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -5589,6 +5969,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Øster Bjerregrav</t>
+        </is>
+      </c>
       <c r="H78" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -5657,6 +6042,11 @@
           <t>6900</t>
         </is>
       </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Nørre Omme</t>
+        </is>
+      </c>
       <c r="H79" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -5725,6 +6115,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Ravnkilde</t>
+        </is>
+      </c>
       <c r="H80" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -5793,6 +6188,11 @@
           <t>6900</t>
         </is>
       </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Låstrup</t>
+        </is>
+      </c>
       <c r="H81" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -5861,6 +6261,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Brorstrup</t>
+        </is>
+      </c>
       <c r="H82" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -5929,6 +6334,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Vivild</t>
+        </is>
+      </c>
       <c r="H83" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -5997,6 +6407,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Skals</t>
+        </is>
+      </c>
       <c r="H84" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -6065,6 +6480,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Vognsild</t>
+        </is>
+      </c>
       <c r="H85" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -6128,6 +6548,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Hørning</t>
+        </is>
+      </c>
       <c r="H86" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -6186,6 +6611,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Stenvad</t>
+        </is>
+      </c>
       <c r="H87" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -6254,6 +6684,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Kongens Tisted</t>
+        </is>
+      </c>
       <c r="H88" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -6322,6 +6757,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Ravnkilde</t>
+        </is>
+      </c>
       <c r="H89" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -6390,6 +6830,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Ravnkilde</t>
+        </is>
+      </c>
       <c r="H90" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -6458,6 +6903,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Them</t>
+        </is>
+      </c>
       <c r="H91" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -6526,6 +6976,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Brønderslev</t>
+        </is>
+      </c>
       <c r="H92" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -6594,6 +7049,11 @@
           <t>6900</t>
         </is>
       </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Kvanløse</t>
+        </is>
+      </c>
       <c r="H93" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -6662,6 +7122,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Odder</t>
+        </is>
+      </c>
       <c r="H94" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -6730,6 +7195,11 @@
           <t>6900</t>
         </is>
       </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Røgen</t>
+        </is>
+      </c>
       <c r="H95" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -6798,6 +7268,11 @@
           <t>6900</t>
         </is>
       </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Krejbjerg</t>
+        </is>
+      </c>
       <c r="H96" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -6866,6 +7341,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Hørmested</t>
+        </is>
+      </c>
       <c r="H97" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -6934,6 +7414,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Rosmus</t>
+        </is>
+      </c>
       <c r="H98" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -7002,6 +7487,11 @@
           <t>6900</t>
         </is>
       </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Tårs</t>
+        </is>
+      </c>
       <c r="H99" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -7070,6 +7560,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Horsens</t>
+        </is>
+      </c>
       <c r="H100" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -7138,6 +7633,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Stadil</t>
+        </is>
+      </c>
       <c r="H101" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -7206,6 +7706,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Hemmet</t>
+        </is>
+      </c>
       <c r="H102" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -7274,6 +7779,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Tårs</t>
+        </is>
+      </c>
       <c r="H103" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -7342,6 +7852,11 @@
           <t>6900</t>
         </is>
       </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Ådum</t>
+        </is>
+      </c>
       <c r="H104" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -7410,6 +7925,11 @@
           <t>6100</t>
         </is>
       </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Lyne</t>
+        </is>
+      </c>
       <c r="H105" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -7478,6 +7998,11 @@
           <t>6100</t>
         </is>
       </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Gudumholm</t>
+        </is>
+      </c>
       <c r="H106" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -7546,6 +8071,11 @@
           <t>6900</t>
         </is>
       </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Varde</t>
+        </is>
+      </c>
       <c r="H107" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -7614,6 +8144,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Voer</t>
+        </is>
+      </c>
       <c r="H108" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -7677,6 +8212,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Hjallerup</t>
+        </is>
+      </c>
       <c r="H109" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -7730,6 +8270,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Lønborg</t>
+        </is>
+      </c>
       <c r="H110" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -7788,6 +8333,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Freden</t>
+        </is>
+      </c>
       <c r="H111" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -7856,6 +8406,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Lem</t>
+        </is>
+      </c>
       <c r="H112" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -7924,6 +8479,11 @@
           <t>6900</t>
         </is>
       </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Tim</t>
+        </is>
+      </c>
       <c r="H113" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -7992,6 +8552,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Østbirk</t>
+        </is>
+      </c>
       <c r="H114" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -8060,6 +8625,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Ovtrup</t>
+        </is>
+      </c>
       <c r="H115" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -8123,6 +8693,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Kvong</t>
+        </is>
+      </c>
       <c r="H116" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -8181,6 +8756,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Bording</t>
+        </is>
+      </c>
       <c r="H117" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -8249,6 +8829,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Uldum</t>
+        </is>
+      </c>
       <c r="H118" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -8317,6 +8902,11 @@
           <t>6900</t>
         </is>
       </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Them</t>
+        </is>
+      </c>
       <c r="H119" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -8385,6 +8975,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Vroue</t>
+        </is>
+      </c>
       <c r="H120" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -8453,6 +9048,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Odder</t>
+        </is>
+      </c>
       <c r="H121" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -8521,6 +9121,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Simmelkær</t>
+        </is>
+      </c>
       <c r="H122" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -8589,6 +9194,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Stenløse</t>
+        </is>
+      </c>
       <c r="H123" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -8657,6 +9267,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Rye</t>
+        </is>
+      </c>
       <c r="H124" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -8725,6 +9340,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Veksø</t>
+        </is>
+      </c>
       <c r="H125" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -8793,6 +9413,11 @@
           <t>6710</t>
         </is>
       </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Skuldelev</t>
+        </is>
+      </c>
       <c r="H126" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -8866,6 +9491,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Skjern</t>
+        </is>
+      </c>
       <c r="H127" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -8934,6 +9564,11 @@
           <t>6200</t>
         </is>
       </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Skjern</t>
+        </is>
+      </c>
       <c r="H128" t="inlineStr">
         <is>
           <t>2021-10-14</t>
@@ -9000,6 +9635,11 @@
       <c r="F129" t="inlineStr">
         <is>
           <t>6200</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Hvilsager</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">

--- a/analysis/metadata/P04_6/P04_6_minimal_metadata.xlsx
+++ b/analysis/metadata/P04_6/P04_6_minimal_metadata.xlsx
@@ -899,6 +899,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
           <t>Malt</t>
@@ -932,6 +937,11 @@
       <c r="M8" t="inlineStr">
         <is>
           <t>2021-07-01</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Fields</t>
         </is>
       </c>
     </row>
@@ -4096,6 +4106,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
       <c r="G52" t="inlineStr">
         <is>
           <t>Kastrup</t>
@@ -4129,6 +4144,11 @@
       <c r="M52" t="inlineStr">
         <is>
           <t>2021-07-01</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Fields</t>
         </is>
       </c>
     </row>
@@ -4154,6 +4174,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
       <c r="G53" t="inlineStr">
         <is>
           <t>Nørre Vium</t>
@@ -4187,6 +4212,11 @@
       <c r="M53" t="inlineStr">
         <is>
           <t>2021-07-01</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Fields</t>
         </is>
       </c>
     </row>
@@ -6548,6 +6578,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
       <c r="G86" t="inlineStr">
         <is>
           <t>Hørning</t>
@@ -6581,6 +6616,11 @@
       <c r="M86" t="inlineStr">
         <is>
           <t>2021-07-01</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>Fields</t>
         </is>
       </c>
     </row>
@@ -8212,6 +8252,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
       <c r="G109" t="inlineStr">
         <is>
           <t>Hjallerup</t>
@@ -8245,6 +8290,11 @@
       <c r="M109" t="inlineStr">
         <is>
           <t>2021-07-01</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>Fields</t>
         </is>
       </c>
     </row>
@@ -8270,6 +8320,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
       <c r="G110" t="inlineStr">
         <is>
           <t>Lønborg</t>
@@ -8303,6 +8358,11 @@
       <c r="M110" t="inlineStr">
         <is>
           <t>2021-07-01</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>Fields</t>
         </is>
       </c>
     </row>
@@ -8693,6 +8753,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
       <c r="G116" t="inlineStr">
         <is>
           <t>Kvong</t>
@@ -8726,6 +8791,11 @@
       <c r="M116" t="inlineStr">
         <is>
           <t>2021-07-01</t>
+        </is>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>Fields</t>
         </is>
       </c>
     </row>
